--- a/WatanyaPingTester/bin/Debug/reports/alexColorReport.xlsx
+++ b/WatanyaPingTester/bin/Debug/reports/alexColorReport.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pingo\Pingo\WatanyaPingTester\bin\Debug\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Fahim\C#\New folder\Pingo\WatanyaPingTester\bin\Debug\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2895" windowHeight="720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,8 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="89">
   <si>
-    <t>From: 03/02/2018 at 1206
-To: 03/02/2018 at 1256</t>
+    <t>From: 03/02/2018 at 2113
+To: 03/02/2018 at 2228</t>
   </si>
   <si>
     <t>El Sheikh Zaid Gate:</t>
@@ -725,22 +725,22 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>99.91</v>
+        <v>0</v>
       </c>
       <c r="B6" s="6">
-        <v>98.19</v>
+        <v>0</v>
       </c>
       <c r="C6" s="6">
-        <v>73.040000000000006</v>
+        <v>0</v>
       </c>
       <c r="D6" s="6">
-        <v>71.489999999999995</v>
+        <v>0</v>
       </c>
       <c r="E6" s="6">
-        <v>98.28</v>
+        <v>96.67</v>
       </c>
       <c r="F6" s="6">
-        <v>98.97</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -791,22 +791,22 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>99.91</v>
+        <v>0</v>
       </c>
       <c r="B12" s="6">
-        <v>98.19</v>
+        <v>0</v>
       </c>
       <c r="C12" s="6">
-        <v>73.040000000000006</v>
+        <v>0</v>
       </c>
       <c r="D12" s="6">
-        <v>71.489999999999995</v>
+        <v>0</v>
       </c>
       <c r="E12" s="6">
-        <v>72.09</v>
+        <v>0</v>
       </c>
       <c r="F12" s="6">
-        <v>72.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -857,22 +857,22 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>99.91</v>
+        <v>0</v>
       </c>
       <c r="B18" s="6">
-        <v>98.19</v>
+        <v>0</v>
       </c>
       <c r="C18" s="6">
-        <v>73.040000000000006</v>
+        <v>0</v>
       </c>
       <c r="D18" s="6">
-        <v>71.489999999999995</v>
+        <v>0</v>
       </c>
       <c r="E18" s="6">
-        <v>72.44</v>
+        <v>0</v>
       </c>
       <c r="F18" s="6">
-        <v>60.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -923,22 +923,22 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>99.91</v>
+        <v>0</v>
       </c>
       <c r="B24" s="6">
-        <v>98.19</v>
+        <v>0</v>
       </c>
       <c r="C24" s="6">
-        <v>73.040000000000006</v>
+        <v>0</v>
       </c>
       <c r="D24" s="6">
-        <v>71.489999999999995</v>
+        <v>0</v>
       </c>
       <c r="E24" s="6">
-        <v>72.44</v>
+        <v>0</v>
       </c>
       <c r="F24" s="6">
-        <v>60.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -983,22 +983,22 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>99.05</v>
+        <v>96.67</v>
       </c>
       <c r="B28" s="6">
-        <v>99.14</v>
+        <v>0</v>
       </c>
       <c r="C28" s="6">
-        <v>99.4</v>
+        <v>96.67</v>
       </c>
       <c r="D28" s="6">
-        <v>82.69</v>
+        <v>96.67</v>
       </c>
       <c r="E28" s="6">
-        <v>81.31</v>
+        <v>96.67</v>
       </c>
       <c r="F28" s="6">
-        <v>82.69</v>
+        <v>96.67</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -1049,22 +1049,22 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>99.91</v>
+        <v>0</v>
       </c>
       <c r="B34" s="6">
-        <v>98.19</v>
+        <v>0</v>
       </c>
       <c r="C34" s="6">
-        <v>73.040000000000006</v>
+        <v>0</v>
       </c>
       <c r="D34" s="6">
-        <v>71.489999999999995</v>
+        <v>0</v>
       </c>
       <c r="E34" s="6">
-        <v>72.44</v>
+        <v>0</v>
       </c>
       <c r="F34" s="6">
-        <v>60.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1093,10 +1093,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>99.05</v>
+        <v>96.67</v>
       </c>
       <c r="B38" s="6">
-        <v>99.31</v>
+        <v>96.67</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -1151,22 +1151,22 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>99.91</v>
+        <v>0</v>
       </c>
       <c r="B44" s="6">
-        <v>98.19</v>
+        <v>0</v>
       </c>
       <c r="C44" s="6">
-        <v>73.040000000000006</v>
+        <v>0</v>
       </c>
       <c r="D44" s="6">
-        <v>71.489999999999995</v>
+        <v>0</v>
       </c>
       <c r="E44" s="6">
-        <v>74.16</v>
+        <v>0</v>
       </c>
       <c r="F44" s="6">
-        <v>86.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1203,16 +1203,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>98.19</v>
+        <v>0</v>
       </c>
       <c r="B48" s="6">
-        <v>98.62</v>
+        <v>0</v>
       </c>
       <c r="C48" s="6">
-        <v>99.14</v>
+        <v>83.33</v>
       </c>
       <c r="D48" s="6">
-        <v>87.86</v>
+        <v>96.67</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -1265,22 +1265,22 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>99.91</v>
+        <v>0</v>
       </c>
       <c r="B54" s="6">
-        <v>98.19</v>
+        <v>0</v>
       </c>
       <c r="C54" s="6">
-        <v>73.040000000000006</v>
+        <v>0</v>
       </c>
       <c r="D54" s="6">
-        <v>71.489999999999995</v>
+        <v>0</v>
       </c>
       <c r="E54" s="6">
-        <v>75.97</v>
+        <v>0</v>
       </c>
       <c r="F54" s="6">
-        <v>73.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1317,16 +1317,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>95.52</v>
+        <v>0</v>
       </c>
       <c r="B58" s="6">
-        <v>89.84</v>
+        <v>0</v>
       </c>
       <c r="C58" s="6">
-        <v>95.87</v>
+        <v>96.67</v>
       </c>
       <c r="D58" s="6">
-        <v>95.87</v>
+        <v>96.67</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -1379,22 +1379,22 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>99.91</v>
+        <v>0</v>
       </c>
       <c r="B64" s="6">
-        <v>98.19</v>
+        <v>0</v>
       </c>
       <c r="C64" s="6">
-        <v>73.040000000000006</v>
+        <v>0</v>
       </c>
       <c r="D64" s="6">
-        <v>71.489999999999995</v>
+        <v>0</v>
       </c>
       <c r="E64" s="6">
-        <v>75.97</v>
+        <v>0</v>
       </c>
       <c r="F64" s="6">
-        <v>73.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1431,16 +1431,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>95.52</v>
+        <v>0</v>
       </c>
       <c r="B68" s="6">
-        <v>89.84</v>
+        <v>0</v>
       </c>
       <c r="C68" s="6">
-        <v>95.87</v>
+        <v>96.67</v>
       </c>
       <c r="D68" s="6">
-        <v>95.78</v>
+        <v>96.67</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -1493,22 +1493,22 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>99.91</v>
+        <v>0</v>
       </c>
       <c r="B74" s="6">
-        <v>98.19</v>
+        <v>0</v>
       </c>
       <c r="C74" s="6">
-        <v>73.040000000000006</v>
+        <v>0</v>
       </c>
       <c r="D74" s="6">
-        <v>71.489999999999995</v>
+        <v>0</v>
       </c>
       <c r="E74" s="6">
-        <v>75.97</v>
+        <v>0</v>
       </c>
       <c r="F74" s="6">
-        <v>73.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -1553,22 +1553,22 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>95.52</v>
+        <v>0</v>
       </c>
       <c r="B78" s="6">
-        <v>89.84</v>
+        <v>0</v>
       </c>
       <c r="C78" s="6">
-        <v>96.73</v>
+        <v>0</v>
       </c>
       <c r="D78" s="6">
-        <v>96.21</v>
+        <v>0</v>
       </c>
       <c r="E78" s="6">
-        <v>97.42</v>
+        <v>0</v>
       </c>
       <c r="F78" s="6">
-        <v>95.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -1619,22 +1619,22 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <v>99.91</v>
+        <v>0</v>
       </c>
       <c r="B84" s="6">
-        <v>98.19</v>
+        <v>0</v>
       </c>
       <c r="C84" s="6">
-        <v>73.040000000000006</v>
+        <v>0</v>
       </c>
       <c r="D84" s="6">
-        <v>71.489999999999995</v>
+        <v>0</v>
       </c>
       <c r="E84" s="6">
-        <v>75.97</v>
+        <v>0</v>
       </c>
       <c r="F84" s="6">
-        <v>73.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -1663,10 +1663,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
-        <v>90.09</v>
+        <v>96.67</v>
       </c>
       <c r="B88" s="6">
-        <v>0</v>
+        <v>96.67</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -1721,22 +1721,22 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
-        <v>99.91</v>
+        <v>0</v>
       </c>
       <c r="B94" s="6">
-        <v>98.19</v>
+        <v>0</v>
       </c>
       <c r="C94" s="6">
-        <v>73.040000000000006</v>
+        <v>0</v>
       </c>
       <c r="D94" s="6">
-        <v>71.489999999999995</v>
+        <v>0</v>
       </c>
       <c r="E94" s="6">
-        <v>75.97</v>
+        <v>0</v>
       </c>
       <c r="F94" s="6">
-        <v>73.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -1781,19 +1781,19 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
-        <v>95.52</v>
+        <v>0</v>
       </c>
       <c r="B98" s="6">
-        <v>89.84</v>
+        <v>0</v>
       </c>
       <c r="C98" s="6">
-        <v>96.73</v>
+        <v>0</v>
       </c>
       <c r="D98" s="6">
-        <v>96.21</v>
+        <v>0</v>
       </c>
       <c r="E98" s="6">
-        <v>89.58</v>
+        <v>0</v>
       </c>
       <c r="F98" s="6">
         <v>0</v>

--- a/WatanyaPingTester/bin/Debug/reports/alexColorReport.xlsx
+++ b/WatanyaPingTester/bin/Debug/reports/alexColorReport.xlsx
@@ -26,8 +26,8 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="89">
   <si>
-    <t>From: 03/02/2018 at 2113
-To: 03/02/2018 at 2228</t>
+    <t>From: 05/02/2018 at 2141
+To: 06/02/2018 at 0645</t>
   </si>
   <si>
     <t>El Sheikh Zaid Gate:</t>
@@ -725,22 +725,22 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>0</v>
+        <v>98.93</v>
       </c>
       <c r="B6" s="6">
-        <v>0</v>
+        <v>97.46</v>
       </c>
       <c r="C6" s="6">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="D6" s="6">
-        <v>0</v>
+        <v>95.85</v>
       </c>
       <c r="E6" s="6">
-        <v>96.67</v>
+        <v>98.38</v>
       </c>
       <c r="F6" s="6">
-        <v>83.33</v>
+        <v>96.97</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -791,22 +791,22 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>0</v>
+        <v>98.93</v>
       </c>
       <c r="B12" s="6">
-        <v>0</v>
+        <v>97.46</v>
       </c>
       <c r="C12" s="6">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="D12" s="6">
-        <v>0</v>
+        <v>95.85</v>
       </c>
       <c r="E12" s="6">
-        <v>0</v>
+        <v>99.49</v>
       </c>
       <c r="F12" s="6">
-        <v>0</v>
+        <v>99.45</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -857,22 +857,22 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>0</v>
+        <v>98.93</v>
       </c>
       <c r="B18" s="6">
-        <v>0</v>
+        <v>97.46</v>
       </c>
       <c r="C18" s="6">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="D18" s="6">
-        <v>0</v>
+        <v>95.85</v>
       </c>
       <c r="E18" s="6">
-        <v>0</v>
+        <v>99.55</v>
       </c>
       <c r="F18" s="6">
-        <v>0</v>
+        <v>77.650000000000006</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -923,22 +923,22 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>0</v>
+        <v>98.93</v>
       </c>
       <c r="B24" s="6">
-        <v>0</v>
+        <v>97.46</v>
       </c>
       <c r="C24" s="6">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="D24" s="6">
-        <v>0</v>
+        <v>95.85</v>
       </c>
       <c r="E24" s="6">
-        <v>0</v>
+        <v>99.55</v>
       </c>
       <c r="F24" s="6">
-        <v>0</v>
+        <v>77.650000000000006</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -983,22 +983,22 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>96.67</v>
+        <v>97.55</v>
       </c>
       <c r="B28" s="6">
-        <v>0</v>
+        <v>94.93</v>
       </c>
       <c r="C28" s="6">
-        <v>96.67</v>
+        <v>94.88</v>
       </c>
       <c r="D28" s="6">
-        <v>96.67</v>
+        <v>84.19</v>
       </c>
       <c r="E28" s="6">
-        <v>96.67</v>
+        <v>82.73</v>
       </c>
       <c r="F28" s="6">
-        <v>96.67</v>
+        <v>81.91</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -1049,22 +1049,22 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>0</v>
+        <v>98.93</v>
       </c>
       <c r="B34" s="6">
-        <v>0</v>
+        <v>97.46</v>
       </c>
       <c r="C34" s="6">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="D34" s="6">
-        <v>0</v>
+        <v>95.85</v>
       </c>
       <c r="E34" s="6">
-        <v>0</v>
+        <v>99.55</v>
       </c>
       <c r="F34" s="6">
-        <v>0</v>
+        <v>77.650000000000006</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1093,10 +1093,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>96.67</v>
+        <v>94.35</v>
       </c>
       <c r="B38" s="6">
-        <v>96.67</v>
+        <v>97.72</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -1151,22 +1151,22 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>0</v>
+        <v>98.93</v>
       </c>
       <c r="B44" s="6">
-        <v>0</v>
+        <v>97.46</v>
       </c>
       <c r="C44" s="6">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="D44" s="6">
-        <v>0</v>
+        <v>95.85</v>
       </c>
       <c r="E44" s="6">
-        <v>0</v>
+        <v>99.54</v>
       </c>
       <c r="F44" s="6">
-        <v>0</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1203,16 +1203,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>0</v>
+        <v>97.98</v>
       </c>
       <c r="B48" s="6">
-        <v>0</v>
+        <v>97.52</v>
       </c>
       <c r="C48" s="6">
-        <v>83.33</v>
+        <v>96.59</v>
       </c>
       <c r="D48" s="6">
-        <v>96.67</v>
+        <v>87.54</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -1265,22 +1265,22 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>0</v>
+        <v>98.93</v>
       </c>
       <c r="B54" s="6">
-        <v>0</v>
+        <v>97.46</v>
       </c>
       <c r="C54" s="6">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="D54" s="6">
-        <v>0</v>
+        <v>95.85</v>
       </c>
       <c r="E54" s="6">
-        <v>0</v>
+        <v>99.01</v>
       </c>
       <c r="F54" s="6">
-        <v>0</v>
+        <v>98.06</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1317,16 +1317,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>0</v>
+        <v>87.88</v>
       </c>
       <c r="B58" s="6">
-        <v>0</v>
+        <v>86.54</v>
       </c>
       <c r="C58" s="6">
-        <v>96.67</v>
+        <v>89.14</v>
       </c>
       <c r="D58" s="6">
-        <v>96.67</v>
+        <v>89.1</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -1379,22 +1379,22 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>0</v>
+        <v>98.93</v>
       </c>
       <c r="B64" s="6">
-        <v>0</v>
+        <v>97.46</v>
       </c>
       <c r="C64" s="6">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="D64" s="6">
-        <v>0</v>
+        <v>95.85</v>
       </c>
       <c r="E64" s="6">
-        <v>0</v>
+        <v>99.01</v>
       </c>
       <c r="F64" s="6">
-        <v>0</v>
+        <v>98.06</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1431,16 +1431,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>0</v>
+        <v>87.88</v>
       </c>
       <c r="B68" s="6">
-        <v>0</v>
+        <v>86.54</v>
       </c>
       <c r="C68" s="6">
-        <v>96.67</v>
+        <v>89.25</v>
       </c>
       <c r="D68" s="6">
-        <v>96.67</v>
+        <v>89.15</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -1493,22 +1493,22 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>0</v>
+        <v>98.93</v>
       </c>
       <c r="B74" s="6">
-        <v>0</v>
+        <v>97.46</v>
       </c>
       <c r="C74" s="6">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="D74" s="6">
-        <v>0</v>
+        <v>95.85</v>
       </c>
       <c r="E74" s="6">
-        <v>0</v>
+        <v>99.01</v>
       </c>
       <c r="F74" s="6">
-        <v>0</v>
+        <v>98.06</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -1553,22 +1553,22 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>0</v>
+        <v>87.88</v>
       </c>
       <c r="B78" s="6">
-        <v>0</v>
+        <v>86.54</v>
       </c>
       <c r="C78" s="6">
-        <v>0</v>
+        <v>86.39</v>
       </c>
       <c r="D78" s="6">
-        <v>0</v>
+        <v>54.38</v>
       </c>
       <c r="E78" s="6">
-        <v>0</v>
+        <v>54.45</v>
       </c>
       <c r="F78" s="6">
-        <v>0</v>
+        <v>54.67</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -1619,22 +1619,22 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <v>0</v>
+        <v>98.93</v>
       </c>
       <c r="B84" s="6">
-        <v>0</v>
+        <v>97.46</v>
       </c>
       <c r="C84" s="6">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="D84" s="6">
-        <v>0</v>
+        <v>95.85</v>
       </c>
       <c r="E84" s="6">
-        <v>0</v>
+        <v>99.01</v>
       </c>
       <c r="F84" s="6">
-        <v>0</v>
+        <v>98.06</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -1663,10 +1663,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
-        <v>96.67</v>
+        <v>89.03</v>
       </c>
       <c r="B88" s="6">
-        <v>96.67</v>
+        <v>88.82</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -1721,22 +1721,22 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
-        <v>0</v>
+        <v>98.93</v>
       </c>
       <c r="B94" s="6">
-        <v>0</v>
+        <v>97.46</v>
       </c>
       <c r="C94" s="6">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="D94" s="6">
-        <v>0</v>
+        <v>95.85</v>
       </c>
       <c r="E94" s="6">
-        <v>0</v>
+        <v>99.01</v>
       </c>
       <c r="F94" s="6">
-        <v>0</v>
+        <v>98.06</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -1781,19 +1781,19 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
-        <v>0</v>
+        <v>87.88</v>
       </c>
       <c r="B98" s="6">
-        <v>0</v>
+        <v>86.54</v>
       </c>
       <c r="C98" s="6">
-        <v>0</v>
+        <v>86.39</v>
       </c>
       <c r="D98" s="6">
-        <v>0</v>
+        <v>54.38</v>
       </c>
       <c r="E98" s="6">
-        <v>0</v>
+        <v>50.06</v>
       </c>
       <c r="F98" s="6">
         <v>0</v>
